--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1888.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1888.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.429996784519818</v>
+        <v>1.402730226516724</v>
       </c>
       <c r="B1">
-        <v>3.532712992042224</v>
+        <v>1.984633207321167</v>
       </c>
       <c r="C1">
-        <v>4.131712017544591</v>
+        <v>3.018386125564575</v>
       </c>
       <c r="D1">
-        <v>1.704845828569516</v>
+        <v>3.790305852890015</v>
       </c>
       <c r="E1">
-        <v>0.7289595222871442</v>
+        <v>0.9802420735359192</v>
       </c>
     </row>
   </sheetData>
